--- a/data/ChiliBeefLettuceWrapsSummer.xlsx
+++ b/data/ChiliBeefLettuceWrapsSummer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A0EE1-A774-4589-9B63-82608B2752A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0EF587-31BE-4098-997A-C8982E28367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="1935" windowWidth="23745" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Season</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>head</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -579,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +598,7 @@
     <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -666,6 +672,9 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -697,6 +706,9 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -710,6 +722,9 @@
       </c>
       <c r="G9" t="s">
         <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/ChiliBeefLettuceWrapsSummer.xlsx
+++ b/data/ChiliBeefLettuceWrapsSummer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0EF587-31BE-4098-997A-C8982E28367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791AECC5-BB3F-4E65-B37E-F1550769016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Season</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>https://getwildfit.com/wp-content/uploads/elementor/thumbs/Sriracha-Beef-Lettuce-Wraps_050-p7u1tkph9fjdvncqwxbshioaoh46imh8c5oujzcprk.jpg</t>
   </si>
 </sst>
 </file>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +533,10 @@
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="138.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +558,11 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -573,6 +583,9 @@
       </c>
       <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -585,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,11 +607,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="138.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
